--- a/tempi maps sampling order spettrali punti.xlsx
+++ b/tempi maps sampling order spettrali punti.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giuseppe Antonelli\Desktop\tesi\Optmised-sampling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D28878C3-20EF-47CD-8EB2-F99BE51B90A1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D98EF6A-6105-4366-9EB1-D1C7C82FC3A1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="16">
   <si>
     <t>plot1</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>media</t>
+  </si>
+  <si>
+    <t>a tratta</t>
   </si>
 </sst>
 </file>
@@ -103,7 +106,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -118,12 +121,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -131,6 +128,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -147,11 +156,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -159,8 +167,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -441,90 +451,90 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="5">
-        <v>2</v>
-      </c>
-      <c r="C1" s="5">
-        <v>3</v>
-      </c>
-      <c r="D1" s="5">
-        <v>4</v>
-      </c>
-      <c r="E1" s="5">
-        <v>5</v>
-      </c>
-      <c r="F1" s="5">
-        <v>6</v>
-      </c>
-      <c r="G1" s="5">
-        <v>7</v>
-      </c>
-      <c r="H1" s="5">
-        <v>8</v>
-      </c>
-      <c r="I1" s="5">
-        <v>9</v>
-      </c>
-      <c r="J1" s="5">
-        <v>10</v>
-      </c>
-      <c r="K1" s="5">
-        <v>11</v>
-      </c>
-      <c r="L1" s="5">
+      <c r="B1" s="4">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4">
+        <v>5</v>
+      </c>
+      <c r="F1" s="4">
+        <v>6</v>
+      </c>
+      <c r="G1" s="4">
+        <v>7</v>
+      </c>
+      <c r="H1" s="4">
+        <v>8</v>
+      </c>
+      <c r="I1" s="4">
+        <v>9</v>
+      </c>
+      <c r="J1" s="4">
+        <v>10</v>
+      </c>
+      <c r="K1" s="4">
+        <v>11</v>
+      </c>
+      <c r="L1" s="4">
         <v>12</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="4" t="s">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M2" s="1">
@@ -532,40 +542,40 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="L3" s="4" t="s">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M3" s="1">
@@ -573,40 +583,40 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="L4" s="4" t="s">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="M4" s="1">
@@ -614,40 +624,40 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L5" s="4" t="s">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M5" s="1">
@@ -655,40 +665,40 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L6" s="4" t="s">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="M6" s="1">
@@ -696,40 +706,40 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L7" s="4" t="s">
+      <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M7" s="1">
@@ -737,40 +747,40 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L8" s="4" t="s">
+      <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M8" s="1">
@@ -778,40 +788,40 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="L9" s="4" t="s">
+      <c r="A9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L9" s="3" t="s">
         <v>1</v>
       </c>
       <c r="M9" s="1">
@@ -819,122 +829,122 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="M10" s="2">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M10" s="8">
         <v>0.24722222222222223</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M11" s="3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M11" s="2">
         <v>0.3034722222222222</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="L12" s="4" t="s">
+      <c r="A12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L12" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M12" s="1">
@@ -942,40 +952,40 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="L13" s="4" t="s">
+      <c r="A13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L13" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M13" s="1">
@@ -983,27 +993,36 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
       <c r="M14" s="1"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="M15" s="7">
+      <c r="M15" s="6">
         <f>AVERAGE(M2:M13)</f>
         <v>0.27876157407407404</v>
       </c>
-      <c r="N15" s="8" t="s">
+      <c r="N15" s="7" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="M16" s="9">
+        <f>M15/11</f>
+        <v>2.5341961279461277E-2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
